--- a/data/filtered_table.xlsx
+++ b/data/filtered_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Res</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Res link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,11 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/adma.200601946</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +519,11 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1364/oe.20.005775</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,12 +543,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Antifogging', 'Antireflective', 'De-wetting', 'Self-cleaning']</t>
+          <t>['Antifogging', 'Antireflective', 'Antiwetting', 'Self-cleaning']</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.surfcoat.2017.03.010</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +579,11 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cej.2020.125008</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +609,11 @@
       <c r="E6" t="n">
         <v>5</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/smll.201400516</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +639,11 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/adom.202200861</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -628,12 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Antireflective', 'Water-repellent']</t>
+          <t>['Antireflective', 'Antiwetting']</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/b821967b</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +699,11 @@
       <c r="E9" t="n">
         <v>8</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c3ee24037a</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +729,11 @@
       <c r="E10" t="n">
         <v>9</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.6b10960</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +759,11 @@
       <c r="E11" t="n">
         <v>10</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsnano.6b03884</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +789,11 @@
       <c r="E12" t="n">
         <v>11</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acs.langmuir.8b02550</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +819,11 @@
       <c r="E13" t="n">
         <v>12</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.3c10214</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +849,11 @@
       <c r="E14" t="n">
         <v>13</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.msec.2019.04.080</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +879,11 @@
       <c r="E15" t="n">
         <v>14</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41598-022-27225-4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +909,11 @@
       <c r="E16" t="n">
         <v>15</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/srep16817</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +939,11 @@
       <c r="E17" t="n">
         <v>16</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cej.2020.125575</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +969,11 @@
       <c r="E18" t="n">
         <v>17</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acs.jpcc.0c04804</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +999,11 @@
       <c r="E19" t="n">
         <v>18</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/srep41023</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -928,12 +1023,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['Anti-drag', 'Self-cleaning Self-healing']</t>
+          <t>['Anti-drag', 'Self-cleaning', 'Self-healing']</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cej.2018.09.022</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +1059,11 @@
       <c r="E21" t="n">
         <v>20</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/srep15430</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1089,11 @@
       <c r="E22" t="n">
         <v>21</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c9ra09329j</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,6 +1119,7 @@
       <c r="E23" t="n">
         <v>20</v>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,6 +1145,11 @@
       <c r="E24" t="n">
         <v>22</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.5b07881</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,6 +1175,11 @@
       <c r="E25" t="n">
         <v>23</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.6b06772</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,6 +1205,11 @@
       <c r="E26" t="n">
         <v>24</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsnano.3c07385</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,6 +1235,11 @@
       <c r="E27" t="n">
         <v>25</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.1c01400</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,6 +1265,11 @@
       <c r="E28" t="n">
         <v>26</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsami.3c14083</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1153,12 +1289,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['Anisotropic wetting', 'Fog collection', 'Directional transport']</t>
+          <t>['Anisotropic wetting', 'Water collection', 'Droplet directional migration']</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://doi.org/doi:10.1126/sciadv.aaq0919</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,6 +1325,11 @@
       <c r="E30" t="n">
         <v>28</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://doi.org/https://doi.org/10.1016/j.jcis.2019.03.096</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1208,6 +1354,11 @@
       </c>
       <c r="E31" t="n">
         <v>29</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cej.2022.136874</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/filtered_table.xlsx
+++ b/data/filtered_table.xlsx
@@ -1117,9 +1117,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c7nr05683d</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1143,7 +1147,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1173,7 +1177,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1203,7 +1207,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1233,7 +1237,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1263,7 +1267,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1293,11 +1297,11 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://doi.org/doi:10.1126/sciadv.aaq0919</t>
+          <t>https://doi.org/10.1126/sciadv.aaq0919</t>
         </is>
       </c>
     </row>
@@ -1323,11 +1327,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://doi.org/https://doi.org/10.1016/j.jcis.2019.03.096</t>
+          <t>https://doi.org/10.1016/j.jcis.2019.03.096</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1357,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>

--- a/data/filtered_table.xlsx
+++ b/data/filtered_table.xlsx
@@ -1068,7 +1068,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beetles kin</t>
+          <t>Beetle skin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
